--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77160.09351003625</v>
+        <v>14400490.72472053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77160.09351003625</v>
+        <v>14400490.72472053</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7193.739399541278</v>
+        <v>814974.2080026917</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193.739399541278</v>
+        <v>814974.2080026917</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266055315.285821</v>
+        <v>51911372.01447791</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10783.35815290609</v>
+        <v>1222944.927692697</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20346.79425705834</v>
+        <v>2259172.494002444</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29910.23036121057</v>
+        <v>3295400.060312191</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39634.22804271549</v>
+        <v>4341478.048669672</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49313.79905755376</v>
+        <v>5378715.130360486</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58480.8595508646</v>
+        <v>6394221.765938566</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67852.92425278634</v>
+        <v>7431458.847629398</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77224.9889547081</v>
+        <v>8468695.929320231</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86476.12540240835</v>
+        <v>9439772.366599448</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95465.29947061086</v>
+        <v>10470623.01320793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104442.4671224916</v>
+        <v>11495904.83614356</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113335.4803896063</v>
+        <v>12529376.93969329</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122232.073980647</v>
+        <v>13563018.76676171</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131553.8513740819</v>
+        <v>14532335.1031547</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141450.3906401182</v>
+        <v>15437914.60174455</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>32.0000000000262</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>378.0000000000261</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>32.00000000005758</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>377.9999999999437</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295.0000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>51.00000000000017</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
